--- a/ground_motion.xlsx
+++ b/ground_motion.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,419 +448,419 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45574.78165244213</v>
+        <v>45574.79812244213</v>
       </c>
       <c r="B2" t="n">
-        <v>598.1319999999999</v>
+        <v>872.212</v>
       </c>
       <c r="C2" t="n">
-        <v>7.51</v>
+        <v>11.26</v>
       </c>
       <c r="D2" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45574.78239348379</v>
+        <v>45574.79827521991</v>
       </c>
       <c r="B3" t="n">
-        <v>746.052</v>
+        <v>810.6319999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>9.289999999999999</v>
+        <v>12.27</v>
       </c>
       <c r="D3" t="n">
-        <v>0.14</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45574.78239403935</v>
+        <v>45574.79827550926</v>
       </c>
       <c r="B4" t="n">
-        <v>746.052</v>
+        <v>810.6319999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>9.289999999999999</v>
+        <v>12.27</v>
       </c>
       <c r="D4" t="n">
-        <v>0.14</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45574.78301790509</v>
+        <v>45574.79843024306</v>
       </c>
       <c r="B5" t="n">
-        <v>779.772</v>
+        <v>681.272</v>
       </c>
       <c r="C5" t="n">
-        <v>9.65</v>
+        <v>8.01</v>
       </c>
       <c r="D5" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45574.78301850695</v>
+        <v>45574.7984324537</v>
       </c>
       <c r="B6" t="n">
-        <v>779.772</v>
+        <v>681.272</v>
       </c>
       <c r="C6" t="n">
-        <v>9.65</v>
+        <v>8.01</v>
       </c>
       <c r="D6" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45574.78317637731</v>
+        <v>45574.79858618056</v>
       </c>
       <c r="B7" t="n">
-        <v>851.582</v>
+        <v>851.5119999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>7.89</v>
+        <v>11.95</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45574.78317668982</v>
+        <v>45574.79859358796</v>
       </c>
       <c r="B8" t="n">
-        <v>851.582</v>
+        <v>851.5119999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>7.89</v>
+        <v>11.95</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45574.78333018519</v>
+        <v>45574.79874068287</v>
       </c>
       <c r="B9" t="n">
-        <v>851.582</v>
+        <v>847.852</v>
       </c>
       <c r="C9" t="n">
-        <v>7.89</v>
+        <v>12.21</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45574.78333070602</v>
+        <v>45574.79874239583</v>
       </c>
       <c r="B10" t="n">
-        <v>851.582</v>
+        <v>847.852</v>
       </c>
       <c r="C10" t="n">
-        <v>7.89</v>
+        <v>12.21</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45574.78348625</v>
+        <v>45574.79888959491</v>
       </c>
       <c r="B11" t="n">
-        <v>735.982</v>
+        <v>1046.462</v>
       </c>
       <c r="C11" t="n">
-        <v>8.960000000000001</v>
+        <v>13.6</v>
       </c>
       <c r="D11" t="n">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45574.78348697917</v>
+        <v>45574.79904519676</v>
       </c>
       <c r="B12" t="n">
-        <v>735.982</v>
+        <v>1046.462</v>
       </c>
       <c r="C12" t="n">
-        <v>8.960000000000001</v>
+        <v>13.6</v>
       </c>
       <c r="D12" t="n">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45574.78363555556</v>
+        <v>45574.79905157407</v>
       </c>
       <c r="B13" t="n">
-        <v>735.982</v>
+        <v>1046.462</v>
       </c>
       <c r="C13" t="n">
-        <v>8.960000000000001</v>
+        <v>13.6</v>
       </c>
       <c r="D13" t="n">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45574.78363712963</v>
+        <v>45574.79920046296</v>
       </c>
       <c r="B14" t="n">
-        <v>735.982</v>
+        <v>1294.142</v>
       </c>
       <c r="C14" t="n">
-        <v>8.960000000000001</v>
+        <v>12.57</v>
       </c>
       <c r="D14" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45574.78378663195</v>
+        <v>45574.79920118055</v>
       </c>
       <c r="B15" t="n">
-        <v>1716.52</v>
+        <v>1294.142</v>
       </c>
       <c r="C15" t="n">
-        <v>20.8</v>
+        <v>12.57</v>
       </c>
       <c r="D15" t="n">
-        <v>0.26</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45574.78378760417</v>
+        <v>45574.79935497685</v>
       </c>
       <c r="B16" t="n">
-        <v>1716.52</v>
+        <v>792.662</v>
       </c>
       <c r="C16" t="n">
-        <v>20.8</v>
+        <v>10.22</v>
       </c>
       <c r="D16" t="n">
-        <v>0.26</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45574.78393745371</v>
+        <v>45574.79935655092</v>
       </c>
       <c r="B17" t="n">
-        <v>835.212</v>
+        <v>792.662</v>
       </c>
       <c r="C17" t="n">
-        <v>11.45</v>
+        <v>10.22</v>
       </c>
       <c r="D17" t="n">
-        <v>0.23</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45574.78393815972</v>
+        <v>45574.79950288194</v>
       </c>
       <c r="B18" t="n">
-        <v>835.212</v>
+        <v>792.662</v>
       </c>
       <c r="C18" t="n">
-        <v>11.45</v>
+        <v>10.22</v>
       </c>
       <c r="D18" t="n">
-        <v>0.23</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45574.78408997685</v>
+        <v>45574.79950375</v>
       </c>
       <c r="B19" t="n">
-        <v>1199.92</v>
+        <v>792.662</v>
       </c>
       <c r="C19" t="n">
-        <v>13.89</v>
+        <v>10.22</v>
       </c>
       <c r="D19" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45574.78409038195</v>
+        <v>45574.79965409722</v>
       </c>
       <c r="B20" t="n">
-        <v>1199.92</v>
+        <v>1631.282</v>
       </c>
       <c r="C20" t="n">
-        <v>13.89</v>
+        <v>27.12</v>
       </c>
       <c r="D20" t="n">
-        <v>0.18</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45574.78424765047</v>
+        <v>45574.79965483796</v>
       </c>
       <c r="B21" t="n">
-        <v>841.852</v>
+        <v>1631.282</v>
       </c>
       <c r="C21" t="n">
-        <v>10.07</v>
+        <v>27.12</v>
       </c>
       <c r="D21" t="n">
-        <v>0.16</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45574.78424803241</v>
+        <v>45574.7998060301</v>
       </c>
       <c r="B22" t="n">
-        <v>841.852</v>
+        <v>713.972</v>
       </c>
       <c r="C22" t="n">
-        <v>10.07</v>
+        <v>7.83</v>
       </c>
       <c r="D22" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45574.7843979051</v>
+        <v>45574.79980723379</v>
       </c>
       <c r="B23" t="n">
-        <v>611.8819999999999</v>
+        <v>713.972</v>
       </c>
       <c r="C23" t="n">
-        <v>8.050000000000001</v>
+        <v>7.83</v>
       </c>
       <c r="D23" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45574.78439886574</v>
+        <v>45574.79996004629</v>
       </c>
       <c r="B24" t="n">
-        <v>611.8819999999999</v>
+        <v>1054.972</v>
       </c>
       <c r="C24" t="n">
-        <v>8.050000000000001</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45574.78459700231</v>
+        <v>45574.79996189815</v>
       </c>
       <c r="B25" t="n">
-        <v>919.742</v>
+        <v>1054.972</v>
       </c>
       <c r="C25" t="n">
-        <v>11.25</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.14</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45574.78460167824</v>
+        <v>45574.80011285879</v>
       </c>
       <c r="B26" t="n">
-        <v>919.742</v>
+        <v>2203.332</v>
       </c>
       <c r="C26" t="n">
-        <v>11.25</v>
+        <v>19.13</v>
       </c>
       <c r="D26" t="n">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45574.78475361111</v>
+        <v>45574.80011388889</v>
       </c>
       <c r="B27" t="n">
-        <v>919.742</v>
+        <v>2203.332</v>
       </c>
       <c r="C27" t="n">
-        <v>11.25</v>
+        <v>19.13</v>
       </c>
       <c r="D27" t="n">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45574.78475442129</v>
+        <v>45574.80029353009</v>
       </c>
       <c r="B28" t="n">
-        <v>919.742</v>
+        <v>978.842</v>
       </c>
       <c r="C28" t="n">
-        <v>11.25</v>
+        <v>11.3</v>
       </c>
       <c r="D28" t="n">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45574.78496298611</v>
+        <v>45574.80035113426</v>
       </c>
       <c r="B29" t="n">
-        <v>1069.862</v>
+        <v>782.972</v>
       </c>
       <c r="C29" t="n">
-        <v>10.89</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45574.78496376157</v>
+        <v>45574.80044240741</v>
       </c>
       <c r="B30" t="n">
-        <v>1069.862</v>
+        <v>788.3920000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>10.89</v>
+        <v>8.19</v>
       </c>
       <c r="D30" t="n">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45574.78511939815</v>
+        <v>45574.80049771991</v>
       </c>
       <c r="B31" t="n">
-        <v>616.332</v>
+        <v>788.3920000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>7.1</v>
+        <v>8.19</v>
       </c>
       <c r="D31" t="n">
         <v>0.13</v>
@@ -868,13 +868,13 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45574.78512079861</v>
+        <v>45574.80059157407</v>
       </c>
       <c r="B32" t="n">
-        <v>616.332</v>
+        <v>788.3920000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>7.1</v>
+        <v>8.19</v>
       </c>
       <c r="D32" t="n">
         <v>0.13</v>
@@ -882,83 +882,83 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45574.78527421296</v>
+        <v>45574.80064739583</v>
       </c>
       <c r="B33" t="n">
-        <v>1012.242</v>
+        <v>788.3920000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>9.720000000000001</v>
+        <v>8.19</v>
       </c>
       <c r="D33" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45574.78527484954</v>
+        <v>45574.80074587963</v>
       </c>
       <c r="B34" t="n">
-        <v>1012.242</v>
+        <v>7722</v>
       </c>
       <c r="C34" t="n">
-        <v>9.720000000000001</v>
+        <v>7.99</v>
       </c>
       <c r="D34" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45574.78590923611</v>
+        <v>45574.80079583333</v>
       </c>
       <c r="B35" t="n">
-        <v>877.52</v>
+        <v>7722</v>
       </c>
       <c r="C35" t="n">
-        <v>9.58</v>
+        <v>7.99</v>
       </c>
       <c r="D35" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45574.78606461806</v>
+        <v>45574.80089534722</v>
       </c>
       <c r="B36" t="n">
-        <v>1080.662</v>
+        <v>675.692</v>
       </c>
       <c r="C36" t="n">
-        <v>11.19</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45574.78606546296</v>
+        <v>45574.8009442824</v>
       </c>
       <c r="B37" t="n">
-        <v>1080.662</v>
+        <v>675.692</v>
       </c>
       <c r="C37" t="n">
-        <v>11.19</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45574.78621567129</v>
+        <v>45574.80104287037</v>
       </c>
       <c r="B38" t="n">
-        <v>864.342</v>
+        <v>817.532</v>
       </c>
       <c r="C38" t="n">
-        <v>8.57</v>
+        <v>7.64</v>
       </c>
       <c r="D38" t="n">
         <v>0.14</v>
@@ -966,349 +966,349 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45574.78621636574</v>
+        <v>45574.80109210648</v>
       </c>
       <c r="B39" t="n">
-        <v>864.342</v>
+        <v>1643.122</v>
       </c>
       <c r="C39" t="n">
-        <v>8.57</v>
+        <v>17.21</v>
       </c>
       <c r="D39" t="n">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45574.78636523148</v>
+        <v>45574.80118978009</v>
       </c>
       <c r="B40" t="n">
-        <v>872.452</v>
+        <v>1643.122</v>
       </c>
       <c r="C40" t="n">
-        <v>10.67</v>
+        <v>17.21</v>
       </c>
       <c r="D40" t="n">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45574.78636591435</v>
+        <v>45574.80124221065</v>
       </c>
       <c r="B41" t="n">
-        <v>856.682</v>
+        <v>1643.122</v>
       </c>
       <c r="C41" t="n">
-        <v>11.88</v>
+        <v>17.21</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45574.78651737268</v>
+        <v>45574.80133732639</v>
       </c>
       <c r="B42" t="n">
-        <v>856.682</v>
+        <v>590.222</v>
       </c>
       <c r="C42" t="n">
-        <v>11.88</v>
+        <v>6.7</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45574.78652054398</v>
+        <v>45574.80139091435</v>
       </c>
       <c r="B43" t="n">
-        <v>856.682</v>
+        <v>590.222</v>
       </c>
       <c r="C43" t="n">
-        <v>11.88</v>
+        <v>6.7</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45574.78667032407</v>
+        <v>45574.80148439815</v>
       </c>
       <c r="B44" t="n">
-        <v>513.912</v>
+        <v>1038.52</v>
       </c>
       <c r="C44" t="n">
-        <v>7.13</v>
+        <v>12.7</v>
       </c>
       <c r="D44" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>45574.78667076389</v>
+        <v>45574.80154021991</v>
       </c>
       <c r="B45" t="n">
-        <v>513.912</v>
+        <v>1038.52</v>
       </c>
       <c r="C45" t="n">
-        <v>7.13</v>
+        <v>12.7</v>
       </c>
       <c r="D45" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45574.78682412037</v>
+        <v>45574.80163260417</v>
       </c>
       <c r="B46" t="n">
-        <v>568.962</v>
+        <v>826.92</v>
       </c>
       <c r="C46" t="n">
-        <v>6.69</v>
+        <v>8.58</v>
       </c>
       <c r="D46" t="n">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45574.78682501157</v>
+        <v>45574.80168922454</v>
       </c>
       <c r="B47" t="n">
-        <v>568.962</v>
+        <v>826.92</v>
       </c>
       <c r="C47" t="n">
-        <v>6.69</v>
+        <v>8.58</v>
       </c>
       <c r="D47" t="n">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>45574.78697974537</v>
+        <v>45574.80178221065</v>
       </c>
       <c r="B48" t="n">
-        <v>752.162</v>
+        <v>969.572</v>
       </c>
       <c r="C48" t="n">
-        <v>8.82</v>
+        <v>11.68</v>
       </c>
       <c r="D48" t="n">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>45574.78698440972</v>
+        <v>45574.8018375463</v>
       </c>
       <c r="B49" t="n">
-        <v>752.162</v>
+        <v>791.232</v>
       </c>
       <c r="C49" t="n">
-        <v>8.82</v>
+        <v>11.6</v>
       </c>
       <c r="D49" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>45574.78715412037</v>
+        <v>45574.80193037037</v>
       </c>
       <c r="B50" t="n">
-        <v>982.452</v>
+        <v>791.232</v>
       </c>
       <c r="C50" t="n">
-        <v>9.140000000000001</v>
+        <v>11.6</v>
       </c>
       <c r="D50" t="n">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>45574.78731170139</v>
+        <v>45574.80198449074</v>
       </c>
       <c r="B51" t="n">
-        <v>1382.172</v>
+        <v>578.3819999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>11.1</v>
+        <v>7.25</v>
       </c>
       <c r="D51" t="n">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>45574.7873503125</v>
+        <v>45574.80207896991</v>
       </c>
       <c r="B52" t="n">
-        <v>961.22</v>
+        <v>578.3819999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>11.41</v>
+        <v>7.25</v>
       </c>
       <c r="D52" t="n">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>45574.78746009259</v>
+        <v>45574.80213142361</v>
       </c>
       <c r="B53" t="n">
-        <v>961.22</v>
+        <v>1050.342</v>
       </c>
       <c r="C53" t="n">
-        <v>11.41</v>
+        <v>11.33</v>
       </c>
       <c r="D53" t="n">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>45574.78749856482</v>
+        <v>45574.80222803241</v>
       </c>
       <c r="B54" t="n">
-        <v>961.22</v>
+        <v>1050.342</v>
       </c>
       <c r="C54" t="n">
-        <v>11.41</v>
+        <v>11.33</v>
       </c>
       <c r="D54" t="n">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>45574.78760880787</v>
+        <v>45574.80228038195</v>
       </c>
       <c r="B55" t="n">
-        <v>937.992</v>
+        <v>1050.342</v>
       </c>
       <c r="C55" t="n">
-        <v>10.87</v>
+        <v>11.33</v>
       </c>
       <c r="D55" t="n">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>45574.78764516204</v>
+        <v>45574.80237578704</v>
       </c>
       <c r="B56" t="n">
-        <v>937.992</v>
+        <v>1069.082</v>
       </c>
       <c r="C56" t="n">
-        <v>10.87</v>
+        <v>13.62</v>
       </c>
       <c r="D56" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>45574.78775600695</v>
+        <v>45574.80242822917</v>
       </c>
       <c r="B57" t="n">
-        <v>1092.612</v>
+        <v>1069.082</v>
       </c>
       <c r="C57" t="n">
-        <v>12.34</v>
+        <v>13.62</v>
       </c>
       <c r="D57" t="n">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>45574.78779148148</v>
+        <v>45574.80252256944</v>
       </c>
       <c r="B58" t="n">
-        <v>1092.612</v>
+        <v>672.942</v>
       </c>
       <c r="C58" t="n">
-        <v>12.34</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>45574.78790489583</v>
+        <v>45574.80257732639</v>
       </c>
       <c r="B59" t="n">
-        <v>1090.842</v>
+        <v>672.942</v>
       </c>
       <c r="C59" t="n">
-        <v>10.74</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>45574.78793949074</v>
+        <v>45574.8027259375</v>
       </c>
       <c r="B60" t="n">
-        <v>1090.842</v>
+        <v>1577.022</v>
       </c>
       <c r="C60" t="n">
-        <v>10.74</v>
+        <v>11.76</v>
       </c>
       <c r="D60" t="n">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>45574.78805303241</v>
+        <v>45574.80282957176</v>
       </c>
       <c r="B61" t="n">
-        <v>673.22</v>
+        <v>1577.022</v>
       </c>
       <c r="C61" t="n">
-        <v>8.279999999999999</v>
+        <v>11.76</v>
       </c>
       <c r="D61" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>45574.78808803241</v>
+        <v>45574.80288517361</v>
       </c>
       <c r="B62" t="n">
-        <v>673.22</v>
+        <v>1577.022</v>
       </c>
       <c r="C62" t="n">
-        <v>8.279999999999999</v>
+        <v>11.76</v>
       </c>
       <c r="D62" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>45574.78820206018</v>
+        <v>45574.80297664352</v>
       </c>
       <c r="B63" t="n">
-        <v>1491.382</v>
+        <v>793.282</v>
       </c>
       <c r="C63" t="n">
-        <v>16.8</v>
+        <v>10.59</v>
       </c>
       <c r="D63" t="n">
         <v>0.17</v>
@@ -1316,13 +1316,13 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>45574.78823403936</v>
+        <v>45574.80303185185</v>
       </c>
       <c r="B64" t="n">
-        <v>1491.382</v>
+        <v>793.282</v>
       </c>
       <c r="C64" t="n">
-        <v>16.8</v>
+        <v>10.59</v>
       </c>
       <c r="D64" t="n">
         <v>0.17</v>
@@ -1330,16 +1330,2998 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>45574.78835133332</v>
+        <v>45574.80312349537</v>
       </c>
       <c r="B65" t="n">
-        <v>729.752</v>
+        <v>1384.542</v>
       </c>
       <c r="C65" t="n">
-        <v>8.800000000000001</v>
+        <v>24.3</v>
       </c>
       <c r="D65" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>45574.80317971065</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1384.542</v>
+      </c>
+      <c r="C66" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>45574.80327148148</v>
+      </c>
+      <c r="B67" t="n">
+        <v>2047.972</v>
+      </c>
+      <c r="C67" t="n">
+        <v>13.98</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>45574.80332791667</v>
+      </c>
+      <c r="B68" t="n">
+        <v>2047.972</v>
+      </c>
+      <c r="C68" t="n">
+        <v>13.98</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>45574.80342142361</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1046.042</v>
+      </c>
+      <c r="C69" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>45574.80347622685</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1046.042</v>
+      </c>
+      <c r="C70" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>45574.80357025463</v>
+      </c>
+      <c r="B71" t="n">
+        <v>826.782</v>
+      </c>
+      <c r="C71" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>45574.80362821759</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1084.782</v>
+      </c>
+      <c r="C72" t="n">
+        <v>15.46</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>45574.80372027778</v>
+      </c>
+      <c r="B73" t="n">
+        <v>771.482</v>
+      </c>
+      <c r="C73" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>45574.80377643518</v>
+      </c>
+      <c r="B74" t="n">
+        <v>771.482</v>
+      </c>
+      <c r="C74" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>45574.80386821759</v>
+      </c>
+      <c r="B75" t="n">
+        <v>830.612</v>
+      </c>
+      <c r="C75" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>45574.80392567129</v>
+      </c>
+      <c r="B76" t="n">
+        <v>830.612</v>
+      </c>
+      <c r="C76" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>45574.80401621528</v>
+      </c>
+      <c r="B77" t="n">
+        <v>830.612</v>
+      </c>
+      <c r="C77" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>45574.80407216435</v>
+      </c>
+      <c r="B78" t="n">
+        <v>830.612</v>
+      </c>
+      <c r="C78" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>45574.8041656713</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1094.542</v>
+      </c>
+      <c r="C79" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>45574.80421976852</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1143.622</v>
+      </c>
+      <c r="C80" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>45574.80431447917</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1143.622</v>
+      </c>
+      <c r="C81" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>45574.80436739583</v>
+      </c>
+      <c r="B82" t="n">
+        <v>703.052</v>
+      </c>
+      <c r="C82" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>45574.80451692129</v>
+      </c>
+      <c r="B83" t="n">
+        <v>703.052</v>
+      </c>
+      <c r="C83" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>45574.80466398148</v>
+      </c>
+      <c r="B84" t="n">
+        <v>846.692</v>
+      </c>
+      <c r="C84" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>45574.80481383102</v>
+      </c>
+      <c r="B85" t="n">
+        <v>776.492</v>
+      </c>
+      <c r="C85" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="D85" t="n">
         <v>0.14</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>45574.80493193287</v>
+      </c>
+      <c r="B86" t="n">
+        <v>743.1319999999999</v>
+      </c>
+      <c r="C86" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>45574.80496252315</v>
+      </c>
+      <c r="B87" t="n">
+        <v>869.622</v>
+      </c>
+      <c r="C87" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>45574.80508166667</v>
+      </c>
+      <c r="B88" t="n">
+        <v>534.8920000000001</v>
+      </c>
+      <c r="C88" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>45574.80511017361</v>
+      </c>
+      <c r="B89" t="n">
+        <v>534.8920000000001</v>
+      </c>
+      <c r="C89" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>45574.80523015046</v>
+      </c>
+      <c r="B90" t="n">
+        <v>830.22</v>
+      </c>
+      <c r="C90" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>45574.80525810185</v>
+      </c>
+      <c r="B91" t="n">
+        <v>830.22</v>
+      </c>
+      <c r="C91" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>45574.80537776621</v>
+      </c>
+      <c r="B92" t="n">
+        <v>740.172</v>
+      </c>
+      <c r="C92" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>45574.80540490741</v>
+      </c>
+      <c r="B93" t="n">
+        <v>740.172</v>
+      </c>
+      <c r="C93" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>45574.80552822917</v>
+      </c>
+      <c r="B94" t="n">
+        <v>753.482</v>
+      </c>
+      <c r="C94" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>45574.80555393518</v>
+      </c>
+      <c r="B95" t="n">
+        <v>659.552</v>
+      </c>
+      <c r="C95" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>45574.80567780093</v>
+      </c>
+      <c r="B96" t="n">
+        <v>659.552</v>
+      </c>
+      <c r="C96" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>45574.80570189815</v>
+      </c>
+      <c r="B97" t="n">
+        <v>2613.692</v>
+      </c>
+      <c r="C97" t="n">
+        <v>20.76</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>45574.80582761574</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1904.052</v>
+      </c>
+      <c r="C98" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>45574.80585217592</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1904.052</v>
+      </c>
+      <c r="C99" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>45574.80597740741</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1283.512</v>
+      </c>
+      <c r="C100" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>45574.80599953703</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1283.512</v>
+      </c>
+      <c r="C101" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>45574.80612643519</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1162.782</v>
+      </c>
+      <c r="C102" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>45574.80614866898</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1162.782</v>
+      </c>
+      <c r="C103" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>45574.80627511574</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1370.212</v>
+      </c>
+      <c r="C104" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>45574.80629614583</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1370.212</v>
+      </c>
+      <c r="C105" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>45574.80642303241</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1090.632</v>
+      </c>
+      <c r="C106" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>45574.80644503472</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1090.632</v>
+      </c>
+      <c r="C107" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>45574.80657259259</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1090.632</v>
+      </c>
+      <c r="C108" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>45574.80659123843</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1090.632</v>
+      </c>
+      <c r="C109" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>45574.80672202546</v>
+      </c>
+      <c r="B110" t="n">
+        <v>794.422</v>
+      </c>
+      <c r="C110" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>45574.80673783565</v>
+      </c>
+      <c r="B111" t="n">
+        <v>794.422</v>
+      </c>
+      <c r="C111" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>45574.80686989583</v>
+      </c>
+      <c r="B112" t="n">
+        <v>2554.342</v>
+      </c>
+      <c r="C112" t="n">
+        <v>23.59</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>45574.80688603009</v>
+      </c>
+      <c r="B113" t="n">
+        <v>2554.342</v>
+      </c>
+      <c r="C113" t="n">
+        <v>23.59</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>45574.80702336806</v>
+      </c>
+      <c r="B114" t="n">
+        <v>2554.342</v>
+      </c>
+      <c r="C114" t="n">
+        <v>23.59</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>45574.80703255787</v>
+      </c>
+      <c r="B115" t="n">
+        <v>2554.342</v>
+      </c>
+      <c r="C115" t="n">
+        <v>23.59</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>45574.80717116898</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1845.872</v>
+      </c>
+      <c r="C116" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>45574.80717943287</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1845.872</v>
+      </c>
+      <c r="C117" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>45574.80731997686</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1872.462</v>
+      </c>
+      <c r="C118" t="n">
+        <v>29.75</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>45574.80733162037</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1872.462</v>
+      </c>
+      <c r="C119" t="n">
+        <v>29.75</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>45574.80793811342</v>
+      </c>
+      <c r="B120" t="n">
+        <v>2241.382</v>
+      </c>
+      <c r="C120" t="n">
+        <v>13.52</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>45574.80794515046</v>
+      </c>
+      <c r="B121" t="n">
+        <v>2241.382</v>
+      </c>
+      <c r="C121" t="n">
+        <v>13.52</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>45574.8080871412</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1244.632</v>
+      </c>
+      <c r="C122" t="n">
+        <v>15.24</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>45574.80809221065</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1244.632</v>
+      </c>
+      <c r="C123" t="n">
+        <v>15.24</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>45574.80823914352</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1021.772</v>
+      </c>
+      <c r="C124" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>45574.80823991898</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1021.772</v>
+      </c>
+      <c r="C125" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>45574.80838885417</v>
+      </c>
+      <c r="B126" t="n">
+        <v>744.622</v>
+      </c>
+      <c r="C126" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>45574.80838957176</v>
+      </c>
+      <c r="B127" t="n">
+        <v>744.622</v>
+      </c>
+      <c r="C127" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>45574.80853677083</v>
+      </c>
+      <c r="B128" t="n">
+        <v>970.1319999999999</v>
+      </c>
+      <c r="C128" t="n">
+        <v>11.43</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>45574.8085374537</v>
+      </c>
+      <c r="B129" t="n">
+        <v>970.1319999999999</v>
+      </c>
+      <c r="C129" t="n">
+        <v>11.43</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>45574.80868635417</v>
+      </c>
+      <c r="B130" t="n">
+        <v>876.692</v>
+      </c>
+      <c r="C130" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>45574.80868668982</v>
+      </c>
+      <c r="B131" t="n">
+        <v>876.692</v>
+      </c>
+      <c r="C131" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>45574.80883430556</v>
+      </c>
+      <c r="B132" t="n">
+        <v>823.952</v>
+      </c>
+      <c r="C132" t="n">
+        <v>10.71</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>45574.8088943287</v>
+      </c>
+      <c r="B133" t="n">
+        <v>823.952</v>
+      </c>
+      <c r="C133" t="n">
+        <v>10.71</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>45574.80898393519</v>
+      </c>
+      <c r="B134" t="n">
+        <v>879.652</v>
+      </c>
+      <c r="C134" t="n">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>45574.80904361111</v>
+      </c>
+      <c r="B135" t="n">
+        <v>879.652</v>
+      </c>
+      <c r="C135" t="n">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>45574.80913355324</v>
+      </c>
+      <c r="B136" t="n">
+        <v>769.2619999999999</v>
+      </c>
+      <c r="C136" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>45574.80919236111</v>
+      </c>
+      <c r="B137" t="n">
+        <v>769.2619999999999</v>
+      </c>
+      <c r="C137" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>45574.80928189815</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1423.352</v>
+      </c>
+      <c r="C138" t="n">
+        <v>10.23</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>45574.80934015047</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1423.352</v>
+      </c>
+      <c r="C139" t="n">
+        <v>10.23</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>45574.80943120371</v>
+      </c>
+      <c r="B140" t="n">
+        <v>780.3920000000001</v>
+      </c>
+      <c r="C140" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>45574.80948967593</v>
+      </c>
+      <c r="B141" t="n">
+        <v>881.452</v>
+      </c>
+      <c r="C141" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>45574.80958364583</v>
+      </c>
+      <c r="B142" t="n">
+        <v>881.452</v>
+      </c>
+      <c r="C142" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>45574.80963648148</v>
+      </c>
+      <c r="B143" t="n">
+        <v>915.622</v>
+      </c>
+      <c r="C143" t="n">
+        <v>11.39</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>45574.80973333334</v>
+      </c>
+      <c r="B144" t="n">
+        <v>831.862</v>
+      </c>
+      <c r="C144" t="n">
+        <v>10.67</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>45574.80978425926</v>
+      </c>
+      <c r="B145" t="n">
+        <v>831.862</v>
+      </c>
+      <c r="C145" t="n">
+        <v>10.67</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>45574.80988232639</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1253.172</v>
+      </c>
+      <c r="C146" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>45574.80993222222</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1253.172</v>
+      </c>
+      <c r="C147" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>45574.8100315162</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1263.492</v>
+      </c>
+      <c r="C148" t="n">
+        <v>13.13</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>45574.81008171296</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1498.852</v>
+      </c>
+      <c r="C149" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>45574.8101805324</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1498.852</v>
+      </c>
+      <c r="C150" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>45574.81032828704</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1076.62</v>
+      </c>
+      <c r="C151" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>45574.8103946875</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1139.82</v>
+      </c>
+      <c r="C152" t="n">
+        <v>14.84</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>45574.8105436574</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1139.82</v>
+      </c>
+      <c r="C153" t="n">
+        <v>14.84</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>45574.81069278935</v>
+      </c>
+      <c r="B154" t="n">
+        <v>2641.732</v>
+      </c>
+      <c r="C154" t="n">
+        <v>18.99</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>45574.81084133102</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1120.212</v>
+      </c>
+      <c r="C155" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>45574.81094527778</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1120.212</v>
+      </c>
+      <c r="C156" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>45574.81098815972</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1004.012</v>
+      </c>
+      <c r="C157" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>45574.81109462963</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1004.012</v>
+      </c>
+      <c r="C158" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>45574.81113515046</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1004.012</v>
+      </c>
+      <c r="C159" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>45574.81124232639</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1312.872</v>
+      </c>
+      <c r="C160" t="n">
+        <v>14.93</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>45574.8112837963</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1312.872</v>
+      </c>
+      <c r="C161" t="n">
+        <v>14.93</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>45574.81139140046</v>
+      </c>
+      <c r="B162" t="n">
+        <v>969.492</v>
+      </c>
+      <c r="C162" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>45574.81153909722</v>
+      </c>
+      <c r="B163" t="n">
+        <v>969.492</v>
+      </c>
+      <c r="C163" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>45574.81168746528</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1275.322</v>
+      </c>
+      <c r="C164" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>45574.81183802083</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1090.132</v>
+      </c>
+      <c r="C165" t="n">
+        <v>14.52</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>45574.81198738426</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1090.132</v>
+      </c>
+      <c r="C166" t="n">
+        <v>14.52</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>45574.81213811343</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1052.472</v>
+      </c>
+      <c r="C167" t="n">
+        <v>16.59</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>45574.81214133102</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1052.472</v>
+      </c>
+      <c r="C168" t="n">
+        <v>16.59</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>45574.81228717593</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1336.662</v>
+      </c>
+      <c r="C169" t="n">
+        <v>14.23</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>45574.8124344676</v>
+      </c>
+      <c r="B170" t="n">
+        <v>847.252</v>
+      </c>
+      <c r="C170" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>45574.81245414352</v>
+      </c>
+      <c r="B171" t="n">
+        <v>847.252</v>
+      </c>
+      <c r="C171" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>45574.81258362268</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1188.862</v>
+      </c>
+      <c r="C172" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>45574.81260443287</v>
+      </c>
+      <c r="B173" t="n">
+        <v>1188.862</v>
+      </c>
+      <c r="C173" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>45574.81273056713</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1642.922</v>
+      </c>
+      <c r="C174" t="n">
+        <v>12.79</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>45574.81275376157</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1642.922</v>
+      </c>
+      <c r="C175" t="n">
+        <v>12.79</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>45574.81287741898</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1395.062</v>
+      </c>
+      <c r="C176" t="n">
+        <v>17.65</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>45574.81290408565</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1395.062</v>
+      </c>
+      <c r="C177" t="n">
+        <v>17.65</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>45574.81302678241</v>
+      </c>
+      <c r="B178" t="n">
+        <v>696.442</v>
+      </c>
+      <c r="C178" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>45574.81305201389</v>
+      </c>
+      <c r="B179" t="n">
+        <v>696.442</v>
+      </c>
+      <c r="C179" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>45574.81317511574</v>
+      </c>
+      <c r="B180" t="n">
+        <v>696.442</v>
+      </c>
+      <c r="C180" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>45574.81320122685</v>
+      </c>
+      <c r="B181" t="n">
+        <v>2801.962</v>
+      </c>
+      <c r="C181" t="n">
+        <v>22.88</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>45574.81332481482</v>
+      </c>
+      <c r="B182" t="n">
+        <v>1051.592</v>
+      </c>
+      <c r="C182" t="n">
+        <v>13.46</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>45574.81335005787</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1051.592</v>
+      </c>
+      <c r="C183" t="n">
+        <v>13.46</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>45574.81394451389</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1900.092</v>
+      </c>
+      <c r="C184" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>45574.81396591435</v>
+      </c>
+      <c r="B185" t="n">
+        <v>1900.092</v>
+      </c>
+      <c r="C185" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>45574.81409077546</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1184.732</v>
+      </c>
+      <c r="C186" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>45574.81411627315</v>
+      </c>
+      <c r="B187" t="n">
+        <v>1184.732</v>
+      </c>
+      <c r="C187" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>45574.81423803241</v>
+      </c>
+      <c r="B188" t="n">
+        <v>13522</v>
+      </c>
+      <c r="C188" t="n">
+        <v>13.37</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>45574.81426320602</v>
+      </c>
+      <c r="B189" t="n">
+        <v>13522</v>
+      </c>
+      <c r="C189" t="n">
+        <v>13.37</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>45574.81485693287</v>
+      </c>
+      <c r="B190" t="n">
+        <v>806.6319999999999</v>
+      </c>
+      <c r="C190" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>45574.8148910301</v>
+      </c>
+      <c r="B191" t="n">
+        <v>806.6319999999999</v>
+      </c>
+      <c r="C191" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>45574.81502299768</v>
+      </c>
+      <c r="B192" t="n">
+        <v>1065.562</v>
+      </c>
+      <c r="C192" t="n">
+        <v>12.86</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>45574.81504033565</v>
+      </c>
+      <c r="B193" t="n">
+        <v>1034.382</v>
+      </c>
+      <c r="C193" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>45574.81517390046</v>
+      </c>
+      <c r="B194" t="n">
+        <v>951.672</v>
+      </c>
+      <c r="C194" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>45574.81518899305</v>
+      </c>
+      <c r="B195" t="n">
+        <v>951.672</v>
+      </c>
+      <c r="C195" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>45574.81532490741</v>
+      </c>
+      <c r="B196" t="n">
+        <v>9202</v>
+      </c>
+      <c r="C196" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>45574.8153377662</v>
+      </c>
+      <c r="B197" t="n">
+        <v>9202</v>
+      </c>
+      <c r="C197" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>45574.81547280092</v>
+      </c>
+      <c r="B198" t="n">
+        <v>9202</v>
+      </c>
+      <c r="C198" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>45574.81554841435</v>
+      </c>
+      <c r="B199" t="n">
+        <v>9202</v>
+      </c>
+      <c r="C199" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>45574.81562087963</v>
+      </c>
+      <c r="B200" t="n">
+        <v>9202</v>
+      </c>
+      <c r="C200" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>45574.81569688657</v>
+      </c>
+      <c r="B201" t="n">
+        <v>872.22</v>
+      </c>
+      <c r="C201" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>45574.81576835648</v>
+      </c>
+      <c r="B202" t="n">
+        <v>872.22</v>
+      </c>
+      <c r="C202" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>45574.81584443287</v>
+      </c>
+      <c r="B203" t="n">
+        <v>1710.542</v>
+      </c>
+      <c r="C203" t="n">
+        <v>18.23</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>45574.81591660879</v>
+      </c>
+      <c r="B204" t="n">
+        <v>2172.922</v>
+      </c>
+      <c r="C204" t="n">
+        <v>15.66</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>45574.81599140046</v>
+      </c>
+      <c r="B205" t="n">
+        <v>2172.922</v>
+      </c>
+      <c r="C205" t="n">
+        <v>15.66</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>45574.81606618055</v>
+      </c>
+      <c r="B206" t="n">
+        <v>2172.922</v>
+      </c>
+      <c r="C206" t="n">
+        <v>15.66</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>45574.81614141204</v>
+      </c>
+      <c r="B207" t="n">
+        <v>1508.232</v>
+      </c>
+      <c r="C207" t="n">
+        <v>13.39</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>45574.81621454861</v>
+      </c>
+      <c r="B208" t="n">
+        <v>1508.232</v>
+      </c>
+      <c r="C208" t="n">
+        <v>13.39</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>45574.81629122685</v>
+      </c>
+      <c r="B209" t="n">
+        <v>804.162</v>
+      </c>
+      <c r="C209" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>45574.81636319445</v>
+      </c>
+      <c r="B210" t="n">
+        <v>804.162</v>
+      </c>
+      <c r="C210" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>45574.816440625</v>
+      </c>
+      <c r="B211" t="n">
+        <v>791.282</v>
+      </c>
+      <c r="C211" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>45574.81651025463</v>
+      </c>
+      <c r="B212" t="n">
+        <v>791.282</v>
+      </c>
+      <c r="C212" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>45574.8165893287</v>
+      </c>
+      <c r="B213" t="n">
+        <v>1247.892</v>
+      </c>
+      <c r="C213" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>45574.81665674769</v>
+      </c>
+      <c r="B214" t="n">
+        <v>2077.292</v>
+      </c>
+      <c r="C214" t="n">
+        <v>15.96</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>45574.81673837963</v>
+      </c>
+      <c r="B215" t="n">
+        <v>1292.992</v>
+      </c>
+      <c r="C215" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>45574.81706347222</v>
+      </c>
+      <c r="B216" t="n">
+        <v>1397.052</v>
+      </c>
+      <c r="C216" t="n">
+        <v>16.27</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>45574.81721440972</v>
+      </c>
+      <c r="B217" t="n">
+        <v>2745.182</v>
+      </c>
+      <c r="C217" t="n">
+        <v>37.09</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>45574.81727151621</v>
+      </c>
+      <c r="B218" t="n">
+        <v>1543.832</v>
+      </c>
+      <c r="C218" t="n">
+        <v>20.52</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>45574.81753928241</v>
+      </c>
+      <c r="B219" t="n">
+        <v>782.622</v>
+      </c>
+      <c r="C219" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="D219" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>45574.81759866898</v>
+      </c>
+      <c r="B220" t="n">
+        <v>782.622</v>
+      </c>
+      <c r="C220" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>45574.81768944445</v>
+      </c>
+      <c r="B221" t="n">
+        <v>1129.712</v>
+      </c>
+      <c r="C221" t="n">
+        <v>15.65</v>
+      </c>
+      <c r="D221" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>45574.81774710648</v>
+      </c>
+      <c r="B222" t="n">
+        <v>1129.712</v>
+      </c>
+      <c r="C222" t="n">
+        <v>15.65</v>
+      </c>
+      <c r="D222" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>45574.81783730324</v>
+      </c>
+      <c r="B223" t="n">
+        <v>1795.532</v>
+      </c>
+      <c r="C223" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="D223" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>45574.81789550926</v>
+      </c>
+      <c r="B224" t="n">
+        <v>883.252</v>
+      </c>
+      <c r="C224" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>45574.81798518518</v>
+      </c>
+      <c r="B225" t="n">
+        <v>842.282</v>
+      </c>
+      <c r="C225" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>45574.81804770834</v>
+      </c>
+      <c r="B226" t="n">
+        <v>842.282</v>
+      </c>
+      <c r="C226" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="D226" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>45574.818134375</v>
+      </c>
+      <c r="B227" t="n">
+        <v>1061.132</v>
+      </c>
+      <c r="C227" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="D227" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>45574.81819513889</v>
+      </c>
+      <c r="B228" t="n">
+        <v>1061.132</v>
+      </c>
+      <c r="C228" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>45574.81828359954</v>
+      </c>
+      <c r="B229" t="n">
+        <v>1061.132</v>
+      </c>
+      <c r="C229" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>45574.81837435185</v>
+      </c>
+      <c r="B230" t="n">
+        <v>1063.252</v>
+      </c>
+      <c r="C230" t="n">
+        <v>10.64</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>45574.81843119213</v>
+      </c>
+      <c r="B231" t="n">
+        <v>1063.252</v>
+      </c>
+      <c r="C231" t="n">
+        <v>10.64</v>
+      </c>
+      <c r="D231" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>45574.81852149306</v>
+      </c>
+      <c r="B232" t="n">
+        <v>1832.132</v>
+      </c>
+      <c r="C232" t="n">
+        <v>15.21</v>
+      </c>
+      <c r="D232" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>45574.81858027778</v>
+      </c>
+      <c r="B233" t="n">
+        <v>1832.132</v>
+      </c>
+      <c r="C233" t="n">
+        <v>15.21</v>
+      </c>
+      <c r="D233" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>45574.81866898148</v>
+      </c>
+      <c r="B234" t="n">
+        <v>1034.762</v>
+      </c>
+      <c r="C234" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D234" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>45574.81872939815</v>
+      </c>
+      <c r="B235" t="n">
+        <v>1604.52</v>
+      </c>
+      <c r="C235" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="D235" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>45574.81881775463</v>
+      </c>
+      <c r="B236" t="n">
+        <v>1604.52</v>
+      </c>
+      <c r="C236" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="D236" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>45574.81887829861</v>
+      </c>
+      <c r="B237" t="n">
+        <v>1604.52</v>
+      </c>
+      <c r="C237" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>45574.81896554398</v>
+      </c>
+      <c r="B238" t="n">
+        <v>1103.42</v>
+      </c>
+      <c r="C238" t="n">
+        <v>13.91</v>
+      </c>
+      <c r="D238" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>45574.81902827547</v>
+      </c>
+      <c r="B239" t="n">
+        <v>1103.42</v>
+      </c>
+      <c r="C239" t="n">
+        <v>13.91</v>
+      </c>
+      <c r="D239" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>45574.81911309028</v>
+      </c>
+      <c r="B240" t="n">
+        <v>2359.642</v>
+      </c>
+      <c r="C240" t="n">
+        <v>17.45</v>
+      </c>
+      <c r="D240" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>45574.81917761574</v>
+      </c>
+      <c r="B241" t="n">
+        <v>2359.642</v>
+      </c>
+      <c r="C241" t="n">
+        <v>17.45</v>
+      </c>
+      <c r="D241" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>45574.81926159722</v>
+      </c>
+      <c r="B242" t="n">
+        <v>1267.362</v>
+      </c>
+      <c r="C242" t="n">
+        <v>13.52</v>
+      </c>
+      <c r="D242" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>45574.81932743055</v>
+      </c>
+      <c r="B243" t="n">
+        <v>1267.362</v>
+      </c>
+      <c r="C243" t="n">
+        <v>13.52</v>
+      </c>
+      <c r="D243" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>45574.81940953703</v>
+      </c>
+      <c r="B244" t="n">
+        <v>1443.722</v>
+      </c>
+      <c r="C244" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>45574.81947517361</v>
+      </c>
+      <c r="B245" t="n">
+        <v>1443.722</v>
+      </c>
+      <c r="C245" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="D245" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>45574.81955954861</v>
+      </c>
+      <c r="B246" t="n">
+        <v>1748.112</v>
+      </c>
+      <c r="C246" t="n">
+        <v>17.53</v>
+      </c>
+      <c r="D246" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>45574.81962381944</v>
+      </c>
+      <c r="B247" t="n">
+        <v>1151.22</v>
+      </c>
+      <c r="C247" t="n">
+        <v>13.04</v>
+      </c>
+      <c r="D247" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>45574.81994487269</v>
+      </c>
+      <c r="B248" t="n">
+        <v>912.0119999999999</v>
+      </c>
+      <c r="C248" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="D248" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>45574.81995157407</v>
+      </c>
+      <c r="B249" t="n">
+        <v>1141.282</v>
+      </c>
+      <c r="C249" t="n">
+        <v>13.07</v>
+      </c>
+      <c r="D249" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>45574.83152476852</v>
+      </c>
+      <c r="B250" t="n">
+        <v>951.0119999999999</v>
+      </c>
+      <c r="C250" t="n">
+        <v>13.08</v>
+      </c>
+      <c r="D250" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>45574.83152642361</v>
+      </c>
+      <c r="B251" t="n">
+        <v>951.0119999999999</v>
+      </c>
+      <c r="C251" t="n">
+        <v>13.08</v>
+      </c>
+      <c r="D251" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>45574.83169049768</v>
+      </c>
+      <c r="B252" t="n">
+        <v>754.62</v>
+      </c>
+      <c r="C252" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="D252" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>45574.83169417824</v>
+      </c>
+      <c r="B253" t="n">
+        <v>754.62</v>
+      </c>
+      <c r="C253" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="D253" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>45574.83184657407</v>
+      </c>
+      <c r="B254" t="n">
+        <v>809.52</v>
+      </c>
+      <c r="C254" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="D254" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>45574.83184754629</v>
+      </c>
+      <c r="B255" t="n">
+        <v>809.52</v>
+      </c>
+      <c r="C255" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="D255" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>45574.83199989583</v>
+      </c>
+      <c r="B256" t="n">
+        <v>1617.762</v>
+      </c>
+      <c r="C256" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="D256" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>45574.83200111111</v>
+      </c>
+      <c r="B257" t="n">
+        <v>1617.762</v>
+      </c>
+      <c r="C257" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="D257" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>45574.83215502315</v>
+      </c>
+      <c r="B258" t="n">
+        <v>1942.962</v>
+      </c>
+      <c r="C258" t="n">
+        <v>10.64</v>
+      </c>
+      <c r="D258" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>45574.8323103588</v>
+      </c>
+      <c r="B259" t="n">
+        <v>1132.082</v>
+      </c>
+      <c r="C259" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="D259" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>45574.83231122686</v>
+      </c>
+      <c r="B260" t="n">
+        <v>1132.082</v>
+      </c>
+      <c r="C260" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="D260" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>45574.83246644676</v>
+      </c>
+      <c r="B261" t="n">
+        <v>1518.892</v>
+      </c>
+      <c r="C261" t="n">
+        <v>12.63</v>
+      </c>
+      <c r="D261" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>45574.83246748843</v>
+      </c>
+      <c r="B262" t="n">
+        <v>1518.892</v>
+      </c>
+      <c r="C262" t="n">
+        <v>12.63</v>
+      </c>
+      <c r="D262" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>45574.83262020833</v>
+      </c>
+      <c r="B263" t="n">
+        <v>1481.642</v>
+      </c>
+      <c r="C263" t="n">
+        <v>13.24</v>
+      </c>
+      <c r="D263" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>45574.83277466436</v>
+      </c>
+      <c r="B264" t="n">
+        <v>1484.722</v>
+      </c>
+      <c r="C264" t="n">
+        <v>19.17</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>45574.83293454861</v>
+      </c>
+      <c r="B265" t="n">
+        <v>1114.982</v>
+      </c>
+      <c r="C265" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="D265" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>45574.83293672454</v>
+      </c>
+      <c r="B266" t="n">
+        <v>1114.982</v>
+      </c>
+      <c r="C266" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="D266" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>45574.83308668982</v>
+      </c>
+      <c r="B267" t="n">
+        <v>1070.842</v>
+      </c>
+      <c r="C267" t="n">
+        <v>13.77</v>
+      </c>
+      <c r="D267" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>45574.83323784722</v>
+      </c>
+      <c r="B268" t="n">
+        <v>1041.272</v>
+      </c>
+      <c r="C268" t="n">
+        <v>13.28</v>
+      </c>
+      <c r="D268" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>45574.83330571759</v>
+      </c>
+      <c r="B269" t="n">
+        <v>1001.332</v>
+      </c>
+      <c r="C269" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="D269" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>45574.83338835648</v>
+      </c>
+      <c r="B270" t="n">
+        <v>1001.332</v>
+      </c>
+      <c r="C270" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="D270" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>45574.83345427083</v>
+      </c>
+      <c r="B271" t="n">
+        <v>816.872</v>
+      </c>
+      <c r="C271" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="D271" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>45574.83353579861</v>
+      </c>
+      <c r="B272" t="n">
+        <v>816.872</v>
+      </c>
+      <c r="C272" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="D272" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>45574.83360842593</v>
+      </c>
+      <c r="B273" t="n">
+        <v>1811.962</v>
+      </c>
+      <c r="C273" t="n">
+        <v>21.95</v>
+      </c>
+      <c r="D273" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>45574.8336877662</v>
+      </c>
+      <c r="B274" t="n">
+        <v>906.552</v>
+      </c>
+      <c r="C274" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="D274" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>45574.83375994213</v>
+      </c>
+      <c r="B275" t="n">
+        <v>906.552</v>
+      </c>
+      <c r="C275" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="D275" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>45574.83383657407</v>
+      </c>
+      <c r="B276" t="n">
+        <v>826.732</v>
+      </c>
+      <c r="C276" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="D276" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>45574.83390916666</v>
+      </c>
+      <c r="B277" t="n">
+        <v>1498.162</v>
+      </c>
+      <c r="C277" t="n">
+        <v>15.61</v>
+      </c>
+      <c r="D277" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>45574.83398585786</v>
+      </c>
+      <c r="B278" t="n">
+        <v>1498.162</v>
+      </c>
+      <c r="C278" t="n">
+        <v>15.61</v>
+      </c>
+      <c r="D278" t="n">
+        <v>0.26</v>
       </c>
     </row>
   </sheetData>
